--- a/original.xlsx
+++ b/original.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Karen\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CFC36F-BA56-4509-8816-5B2E688AA02E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC63C676-2B1A-4B51-AB19-DE3CE6F7E452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pessoas" sheetId="1" r:id="rId1"/>
     <sheet name="Gráfico1" sheetId="3" r:id="rId2"/>
-    <sheet name="Vendas" sheetId="2" r:id="rId3"/>
+    <sheet name="Gráfico2" sheetId="4" r:id="rId3"/>
+    <sheet name="Vendas" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -438,6 +439,1041 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34011789151356081"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Comparação Altura</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pessoas!$G$3:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>João Gabriel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paulo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Júlia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Helena</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pessoas!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5474-4595-9CD8-108D6AC2DB83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1032238912"/>
+        <c:axId val="952837680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1032238912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="952837680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="952837680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032238912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pessoas!$G$3:$G$82</c:f>
+              <c:strCache>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>João Gabriel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paulo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Júlia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Helena</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lucas</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Luisa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fábio</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Gabriel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Rafael</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Marina</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Letícia</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Beltrano</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Carol</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Glória</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Pedro</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Marcos</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Matheus</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Bruno</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>João</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Paulo</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Ana</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Júlia</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Helena</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Lucas</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Luisa</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Fábio</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Gabriel</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rafael</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Marina</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Letícia</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Beltrano</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Carol</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Glória</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Pedro</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Marcos</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Matheus</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Bruno</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>João</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Paulo</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Ana</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Júlia</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Helena</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Lucas</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Luisa</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Fábio</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Gabriel</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Rafael</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Marina</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Letícia</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Beltrano</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Carol</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Glória</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Pedro</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Marcos</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Matheus</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Bruno</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>João</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Paulo</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Ana</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Júlia</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Helena</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Lucas</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Luisa</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Fábio</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Gabriel</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Rafael</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Marina</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Letícia</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Beltrano</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Carol</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Glória</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Pedro</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Marcos</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Matheus</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Bruno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pessoas!$H$3:$H$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D9C-48A8-9DBD-36ECC8DA2060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1031735520"/>
+        <c:axId val="718597200"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1031735520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718597200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="718597200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1031735520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1692,7 +2728,431 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Vendas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Totais 2015</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44880843981142599"/>
+          <c:y val="1.998778250459322E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="60325" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$E$4:$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fevereiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Março</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junho</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julho</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Setembro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Outubro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembro</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dezembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$E$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>8035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18753</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-438E-4233-84AE-DCF39BB2C362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1029970800"/>
+        <c:axId val="1023112240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1029970800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023112240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1023112240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029970800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2676,6 +4136,3627 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendas!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Janeiro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Produto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Produto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Produto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B21C-4F16-932E-CE650E9EF3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendas!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fevereiro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Produto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Produto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Produto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B21C-4F16-932E-CE650E9EF3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendas!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Março</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Produto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Produto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Produto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B21C-4F16-932E-CE650E9EF3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendas!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Abril</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Produto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Produto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Produto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$H$5:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B21C-4F16-932E-CE650E9EF3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendas!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Produto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Produto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Produto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B21C-4F16-932E-CE650E9EF3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendas!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Junho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Produto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Produto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Produto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$J$5:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B21C-4F16-932E-CE650E9EF3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendas!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Julho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Produto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Produto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Produto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$K$5:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B21C-4F16-932E-CE650E9EF3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendas!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Produto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Produto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Produto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$L$5:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B21C-4F16-932E-CE650E9EF3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendas!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Setembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Produto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Produto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Produto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$M$5:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B21C-4F16-932E-CE650E9EF3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendas!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Outubro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Produto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Produto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Produto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$N$5:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B21C-4F16-932E-CE650E9EF3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendas!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Novembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000079-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007B-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007D-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007F-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000081-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000083-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Produto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Produto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Produto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$O$5:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-B21C-4F16-932E-CE650E9EF3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vendas!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dezembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000085-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000087-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000089-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008B-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008D-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008F-2A19-4D68-B065-43DE0B4EDA56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Vendas!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Produto 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produto 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produto 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produto 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Produto 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Produto 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vendas!$P$5:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2968</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-B21C-4F16-932E-CE650E9EF3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2756,6 +7837,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3260,7 +8501,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3368,11 +8609,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3383,11 +8619,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3419,9 +8650,527 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3775,11 +9524,1655 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F0201AF6-AEB0-4B08-A1DB-3A243F9882B7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9EDAC0CC-ACCA-484B-81EA-44BAC004B4D1}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -3788,9 +11181,86 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144B1895-C1A9-4422-9539-3EBD31BC269A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151B2E70-0357-4A1B-94FF-ED56091D37DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9643533" cy="6002867"/>
+    <xdr:ext cx="9643533" cy="6011333"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -3819,20 +11289,53 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9643533" cy="6002867"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4AE33BD-5519-4EC7-97E6-18073E36BD09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>754380</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3852,6 +11355,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{963D9BC7-9E58-45F0-AA12-EB144D2F16D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4149,8 +11688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G2:M82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6185,6 +13724,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6193,7 +13733,7 @@
   <dimension ref="D4:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
